--- a/data/Datos_recopilados.xlsx
+++ b/data/Datos_recopilados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IRONHACK\labs_projects\Projects\5_Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IRONHACK\labs_projects\Projects\5_Proyecto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF7EB52E-07B1-450D-9178-402ED5D894BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC08617-1FF0-4203-AD97-560185EC8682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{97FDA059-F047-4F7F-B014-96C24141627A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="53">
   <si>
     <t>version</t>
   </si>
@@ -42,147 +42,15 @@
     <t>control</t>
   </si>
   <si>
-    <t>tratamiento</t>
-  </si>
-  <si>
     <t>userid</t>
   </si>
   <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>c4</t>
-  </si>
-  <si>
-    <t>c5</t>
-  </si>
-  <si>
-    <t>c6</t>
-  </si>
-  <si>
-    <t>c7</t>
-  </si>
-  <si>
-    <t>c8</t>
-  </si>
-  <si>
-    <t>c9</t>
-  </si>
-  <si>
-    <t>c10</t>
-  </si>
-  <si>
-    <t>c11</t>
-  </si>
-  <si>
-    <t>c12</t>
-  </si>
-  <si>
-    <t>c13</t>
-  </si>
-  <si>
-    <t>c14</t>
-  </si>
-  <si>
-    <t>c15</t>
-  </si>
-  <si>
-    <t>c16</t>
-  </si>
-  <si>
-    <t>c17</t>
-  </si>
-  <si>
-    <t>c18</t>
-  </si>
-  <si>
-    <t>c19</t>
-  </si>
-  <si>
-    <t>c20</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t13</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t17</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t19</t>
-  </si>
-  <si>
-    <t>t20</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>page</t>
   </si>
   <si>
     <t>old_page</t>
   </si>
   <si>
-    <t>new_page</t>
-  </si>
-  <si>
-    <t>compra</t>
-  </si>
-  <si>
     <t>nombre</t>
   </si>
   <si>
@@ -199,6 +67,132 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>tratamiento_1</t>
+  </si>
+  <si>
+    <t>cu1</t>
+  </si>
+  <si>
+    <t>cu2</t>
+  </si>
+  <si>
+    <t>cu3</t>
+  </si>
+  <si>
+    <t>cu4</t>
+  </si>
+  <si>
+    <t>cu5</t>
+  </si>
+  <si>
+    <t>cu6</t>
+  </si>
+  <si>
+    <t>cu7</t>
+  </si>
+  <si>
+    <t>cu8</t>
+  </si>
+  <si>
+    <t>cu9</t>
+  </si>
+  <si>
+    <t>cu10</t>
+  </si>
+  <si>
+    <t>cu11</t>
+  </si>
+  <si>
+    <t>cu12</t>
+  </si>
+  <si>
+    <t>cu13</t>
+  </si>
+  <si>
+    <t>cu14</t>
+  </si>
+  <si>
+    <t>cu15</t>
+  </si>
+  <si>
+    <t>cu16</t>
+  </si>
+  <si>
+    <t>cu17</t>
+  </si>
+  <si>
+    <t>cu18</t>
+  </si>
+  <si>
+    <t>cu19</t>
+  </si>
+  <si>
+    <t>cu20</t>
+  </si>
+  <si>
+    <t>t1u1</t>
+  </si>
+  <si>
+    <t>t1u2</t>
+  </si>
+  <si>
+    <t>t1u3</t>
+  </si>
+  <si>
+    <t>t1u4</t>
+  </si>
+  <si>
+    <t>t1u5</t>
+  </si>
+  <si>
+    <t>t1u6</t>
+  </si>
+  <si>
+    <t>t1u7</t>
+  </si>
+  <si>
+    <t>t1u8</t>
+  </si>
+  <si>
+    <t>t1u9</t>
+  </si>
+  <si>
+    <t>t1u10</t>
+  </si>
+  <si>
+    <t>t1u11</t>
+  </si>
+  <si>
+    <t>t1u12</t>
+  </si>
+  <si>
+    <t>t1u13</t>
+  </si>
+  <si>
+    <t>t1u14</t>
+  </si>
+  <si>
+    <t>t1u15</t>
+  </si>
+  <si>
+    <t>compra_exp1</t>
+  </si>
+  <si>
+    <t>num_clicks_exp1</t>
+  </si>
+  <si>
+    <t>click_banner_exp2</t>
+  </si>
+  <si>
+    <t>time_userid</t>
+  </si>
+  <si>
+    <t>time_exp3</t>
+  </si>
+  <si>
+    <t>238+F43H1CC2:C58</t>
   </si>
 </sst>
 </file>
@@ -556,69 +550,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B99AB7A-1869-49A9-80A8-DE385F5E72AC}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
       </c>
       <c r="H1" t="s">
         <v>51</v>
       </c>
       <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>238</v>
-      </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2">
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -627,21 +635,21 @@
         <v>393</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3">
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -650,21 +658,21 @@
         <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4">
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -673,21 +681,21 @@
         <v>327</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5">
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -696,21 +704,21 @@
         <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6">
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -719,21 +727,21 @@
         <v>365</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7">
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -742,21 +750,21 @@
         <v>401</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8">
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -765,21 +773,21 @@
         <v>279</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9">
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -788,21 +796,21 @@
         <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10">
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -811,21 +819,21 @@
         <v>434</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11">
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -834,21 +842,21 @@
         <v>278</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12">
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -857,21 +865,21 @@
         <v>194</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13">
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -880,21 +888,21 @@
         <v>188</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14">
+      <c r="J14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -903,21 +911,21 @@
         <v>417</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="G15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15">
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -926,21 +934,21 @@
         <v>462</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="G16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16">
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -949,21 +957,21 @@
         <v>446</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17">
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -972,21 +980,21 @@
         <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="G18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18">
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -995,21 +1003,21 @@
         <v>332</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="G19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19">
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -1018,21 +1026,21 @@
         <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="G20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20">
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1041,475 +1049,335 @@
         <v>414</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="G21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21">
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>211</v>
       </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="G22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22">
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>126</v>
       </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="G23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23">
+      <c r="J23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>348</v>
       </c>
-      <c r="D24" t="s">
-        <v>47</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="G24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24">
+      <c r="J24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>271</v>
       </c>
-      <c r="D25" t="s">
-        <v>47</v>
-      </c>
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25">
+      <c r="J25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>310</v>
       </c>
-      <c r="D26" t="s">
-        <v>47</v>
-      </c>
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="G26" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26">
+      <c r="J26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>385</v>
       </c>
-      <c r="D27" t="s">
-        <v>47</v>
-      </c>
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="G27" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27">
+      <c r="J27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>148</v>
       </c>
-      <c r="D28" t="s">
-        <v>47</v>
-      </c>
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="G28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28">
+      <c r="J28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>241</v>
       </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="G29" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29">
+      <c r="J29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>294</v>
       </c>
-      <c r="D30" t="s">
-        <v>47</v>
-      </c>
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="G30" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30">
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>402</v>
       </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="G31" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31">
+      <c r="J31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C32">
         <v>433</v>
       </c>
-      <c r="D32" t="s">
-        <v>47</v>
-      </c>
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="G32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32">
+      <c r="J32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C33">
         <v>62</v>
       </c>
-      <c r="D33" t="s">
-        <v>47</v>
-      </c>
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="G33" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33">
+      <c r="J33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C34">
         <v>406</v>
       </c>
-      <c r="D34" t="s">
-        <v>47</v>
-      </c>
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="G34" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34">
+      <c r="J34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>449</v>
       </c>
-      <c r="D35" t="s">
-        <v>47</v>
-      </c>
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="G35" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35">
+      <c r="J35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C36">
         <v>313</v>
       </c>
-      <c r="D36" t="s">
-        <v>47</v>
-      </c>
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="G36" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36">
+      <c r="J36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C37">
-        <v>429</v>
-      </c>
-      <c r="D37" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="G37" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>148</v>
-      </c>
-      <c r="D38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <v>78</v>
-      </c>
-      <c r="D39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <v>430</v>
-      </c>
-      <c r="D40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41">
-        <v>68</v>
-      </c>
-      <c r="D41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41">
+      <c r="J37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37">
         <v>17</v>
       </c>
     </row>

--- a/data/Datos_recopilados.xlsx
+++ b/data/Datos_recopilados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgc_1\IronHack\Proyectos\5_Proyecto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950E0EEA-0D09-4A22-B027-1FB9426C0F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0BD44D-AF5A-48C7-8451-E19C44AC176D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97FDA059-F047-4F7F-B014-96C24141627A}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>tratamiento_1</t>
-  </si>
-  <si>
     <t>cu1</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>Ingeniero</t>
+  </si>
+  <si>
+    <t>tratamiento</t>
   </si>
 </sst>
 </file>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B99AB7A-1869-49A9-80A8-DE385F5E72AC}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,16 +608,16 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -658,12 +658,12 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -690,12 +690,12 @@
         <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -722,12 +722,12 @@
         <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -754,12 +754,12 @@
         <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -786,12 +786,12 @@
         <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -818,12 +818,12 @@
         <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -850,12 +850,12 @@
         <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -882,12 +882,12 @@
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -914,12 +914,12 @@
         <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -946,12 +946,12 @@
         <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -978,12 +978,12 @@
         <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -1010,12 +1010,12 @@
         <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -1042,12 +1042,12 @@
         <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -1074,12 +1074,12 @@
         <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -1106,18 +1106,18 @@
         <v>28</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1138,18 +1138,18 @@
         <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1170,18 +1170,18 @@
         <v>38</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1202,18 +1202,18 @@
         <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1234,18 +1234,18 @@
         <v>39</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1266,18 +1266,18 @@
         <v>26</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1298,18 +1298,18 @@
         <v>29</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1330,18 +1330,18 @@
         <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1362,18 +1362,18 @@
         <v>39</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1394,18 +1394,18 @@
         <v>35</v>
       </c>
       <c r="J25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1426,18 +1426,18 @@
         <v>29</v>
       </c>
       <c r="J26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1458,18 +1458,18 @@
         <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1490,18 +1490,18 @@
         <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1522,18 +1522,18 @@
         <v>26</v>
       </c>
       <c r="J29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1554,18 +1554,18 @@
         <v>31</v>
       </c>
       <c r="J30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
         <v>43</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>44</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1586,7 +1586,7 @@
         <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
